--- a/app/static/uploads/Unita.xlsx
+++ b/app/static/uploads/Unita.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dp/Desktop/bapco/webtools settings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danilo/python/webtools/app/static/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9973E1-7DF4-8F4C-AE68-C95C451FC3AD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="21200" windowHeight="13420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10360" yWindow="3760" windowWidth="21200" windowHeight="13420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>018</t>
   </si>
@@ -81,6 +82,60 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>Common Unit</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>INTERCONNECTING SYSTEM FOR NEW BMP PLANTS</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>TELECOM/SECURITY</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>COMMON FOR SULPHUR BLOCK</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>BMP MAINTENANCE WORKSHOP</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>REFINERY CENTRAL CONTROL BUILDING RCCB</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>WAITING FOR A NAME</t>
   </si>
 </sst>
 </file>
@@ -124,15 +179,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -447,31 +505,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="8.83203125" style="3"/>
     <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -479,7 +538,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -487,7 +546,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -495,7 +554,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -503,7 +562,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>381</v>
       </c>
       <c r="B6" t="s">
@@ -511,7 +570,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -519,7 +578,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
@@ -527,7 +586,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
@@ -535,6 +594,94 @@
       </c>
       <c r="C9" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
